--- a/Inputs/Pacific_Cross_Master_Series/benefits.xlsx
+++ b/Inputs/Pacific_Cross_Master_Series/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="93">
   <si>
     <t xml:space="preserve">User Type</t>
   </si>
@@ -200,141 +200,19 @@
     <t xml:space="preserve">Maternity (Consultations, Scans and Delivery)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Delivery- Covered up to VND 40,000,000 with $-IP deductible
-Miscarriage and therapeutic abortion- Covered up to VND 20,000,000 with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">$-IP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> deductible
+    <t xml:space="preserve">Delivery- Covered up to VND 40,000,000 with $-IP deductible
+Miscarriage and therapeutic abortion- Covered up to VND 20,000,000 with $-IP deductible
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Delivery- Covered up to VND 60,000,000 with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">$-IP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> deductible
-Miscarriage and therapeutic abortion- Covered up to VND 30,000,000 with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">$-IP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> deductible
+  </si>
+  <si>
+    <t xml:space="preserve">Delivery- Covered up to VND 60,000,000 with $-IP deductible
+Miscarriage and therapeutic abortion- Covered up to VND 30,000,000 with $-IP deductible
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Delivery- Covered up to VND 100,000,000 with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">$-IP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> deductible
-Miscarriage and therapeutic abortion- Covered up to VND 100,000,000 with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">$-IP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> deductible
+  </si>
+  <si>
+    <t xml:space="preserve">Delivery- Covered up to VND 100,000,000 with $-IP deductible
+Miscarriage and therapeutic abortion- Covered up to VND 100,000,000 with $-IP deductible
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Maternity Waiting Period</t>
@@ -407,35 +285,7 @@
     <t xml:space="preserve">Emergency Evacuation</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Covered in full with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">$-IP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> co-pay</t>
-    </r>
+    <t xml:space="preserve">Covered in full with $-IP co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">Virtual / Tele Doctor</t>
@@ -475,6 +325,12 @@
   </si>
   <si>
     <t xml:space="preserve">Copays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP-NIL copay/IP-VND 50,000,000 deductible/IP-20% copay/OP-NIL Copay/OP-20% Copay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$-IP</t>
   </si>
   <si>
     <r>
@@ -485,7 +341,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">IP-NIL copay/IP-</t>
+      <t xml:space="preserve">NIL copay-VND 50,000,000 deductible-20% copay-</t>
     </r>
     <r>
       <rPr>
@@ -494,20 +350,11 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">VND 50,000,000 deductible/IP-20% copay/OP-NIL Copay/OP-20% Copay</t>
+      <t xml:space="preserve">NIL Copay-20% Copay</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">$-IP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIL copay-VND 50,000,000 deductible-20% copay</t>
-  </si>
-  <si>
     <t xml:space="preserve">$-OP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIL Copay-20% Copay</t>
   </si>
 </sst>
 </file>
@@ -518,7 +365,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -602,12 +449,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -762,7 +603,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -815,7 +656,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -831,15 +672,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -847,19 +688,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -871,7 +708,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -903,19 +740,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -939,15 +772,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -975,27 +800,23 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1078,13 +899,13 @@
   </sheetPr>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D47" activeCellId="0" sqref="D47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C47" activeCellId="0" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="1.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="52.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.79"/>
@@ -1208,13 +1029,13 @@
       <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="15"/>
@@ -1227,13 +1048,13 @@
       <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="11"/>
@@ -1277,13 +1098,13 @@
       <c r="B11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="11"/>
@@ -1296,13 +1117,13 @@
       <c r="B12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="25" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="11"/>
@@ -1334,7 +1155,7 @@
       <c r="B14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="24" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="20" t="s">
@@ -1353,7 +1174,7 @@
       <c r="B15" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
@@ -1365,13 +1186,13 @@
       <c r="B16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="27" t="s">
         <v>41</v>
       </c>
       <c r="F16" s="14"/>
@@ -1384,13 +1205,13 @@
       <c r="B17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="27" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="14"/>
@@ -1403,16 +1224,16 @@
       <c r="B18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="29"/>
+      <c r="F18" s="28"/>
       <c r="G18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1422,7 +1243,7 @@
       <c r="B19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="29" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="20" t="s">
@@ -1431,8 +1252,8 @@
       <c r="E19" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="31"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
@@ -1441,16 +1262,16 @@
       <c r="B20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="29"/>
+      <c r="F20" s="28"/>
       <c r="G20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1460,16 +1281,16 @@
       <c r="B21" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="32"/>
+      <c r="F21" s="31"/>
       <c r="G21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1491,7 +1312,7 @@
       <c r="B23" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>50</v>
       </c>
       <c r="D23" s="20" t="s">
@@ -1501,7 +1322,7 @@
         <v>52</v>
       </c>
       <c r="F23" s="14"/>
-      <c r="G23" s="33"/>
+      <c r="G23" s="32"/>
     </row>
     <row r="24" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
@@ -1510,17 +1331,17 @@
       <c r="B24" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
@@ -1539,7 +1360,7 @@
         <v>34</v>
       </c>
       <c r="F25" s="14"/>
-      <c r="G25" s="33"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
@@ -1557,8 +1378,8 @@
       <c r="E26" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="31"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
@@ -1567,7 +1388,7 @@
       <c r="B27" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="27"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
@@ -1579,7 +1400,7 @@
       <c r="B28" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="29" t="s">
         <v>60</v>
       </c>
       <c r="D28" s="13" t="s">
@@ -1589,7 +1410,7 @@
         <v>60</v>
       </c>
       <c r="F28" s="14"/>
-      <c r="G28" s="33"/>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
@@ -1608,7 +1429,7 @@
         <v>62</v>
       </c>
       <c r="F29" s="14"/>
-      <c r="G29" s="33"/>
+      <c r="G29" s="32"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
@@ -1619,7 +1440,7 @@
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="38"/>
+      <c r="E30" s="36"/>
       <c r="F30" s="19"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,8 +1459,8 @@
       <c r="E31" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="39"/>
-      <c r="G31" s="40"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="38"/>
     </row>
     <row r="32" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
@@ -1648,17 +1469,17 @@
       <c r="B32" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="39"/>
-      <c r="G32" s="40"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="38"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
@@ -1676,8 +1497,8 @@
       <c r="E33" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="33"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="32"/>
     </row>
     <row r="34" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
@@ -1686,17 +1507,17 @@
       <c r="B34" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="33" t="s">
         <v>73</v>
       </c>
       <c r="F34" s="14"/>
-      <c r="G34" s="33"/>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
@@ -1705,17 +1526,17 @@
       <c r="B35" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="42" t="s">
+      <c r="E35" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
@@ -1738,16 +1559,16 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7"/>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="46" t="s">
+      <c r="D37" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="46" t="s">
+      <c r="E37" s="10" t="s">
         <v>78</v>
       </c>
       <c r="F37" s="15"/>
@@ -1769,8 +1590,8 @@
       <c r="E38" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F38" s="47"/>
-      <c r="G38" s="48"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="44"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
@@ -1809,17 +1630,17 @@
       <c r="B41" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="49" t="n">
+      <c r="C41" s="45" t="n">
         <v>0.04</v>
       </c>
-      <c r="D41" s="49" t="n">
+      <c r="D41" s="45" t="n">
         <v>0.04</v>
       </c>
-      <c r="E41" s="49" t="n">
+      <c r="E41" s="45" t="n">
         <v>0.04</v>
       </c>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
@@ -1837,8 +1658,8 @@
       <c r="E42" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="51"/>
-      <c r="G42" s="52"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="48"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
@@ -1856,14 +1677,14 @@
       <c r="E43" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="51"/>
-      <c r="G43" s="52"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="48"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="49" t="s">
         <v>86</v>
       </c>
       <c r="C44" s="18"/>
@@ -1875,7 +1696,7 @@
       <c r="A45" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="50" t="s">
         <v>87</v>
       </c>
       <c r="C45" s="18"/>
@@ -1884,47 +1705,53 @@
       <c r="A46" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="56" t="s">
+      <c r="C46" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="56" t="s">
+      <c r="D46" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="E46" s="56" t="s">
+      <c r="E46" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="F46" s="56"/>
-      <c r="G46" s="57"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F46" s="52"/>
+      <c r="G46" s="53"/>
+    </row>
+    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="B47" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="58" t="s">
+      <c r="D47" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="58" t="s">
+      <c r="E47" s="52" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="B48" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="D48" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="E48" s="58" t="s">
-        <v>93</v>
+      <c r="C48" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="52" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
